--- a/Proyectos/2016/1/P1446 - RNCFAC, Juan Carlos Sanchez_AG/Planeación/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1446 - RNCFAC, Juan Carlos Sanchez_AG/Planeación/Plan_de_proyecto.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANABEL GONZALEZ\Documents\SOSQTP\Proyectos\2016\1\P1446 - RNCFAC, Juan Carlos Sanchez_AG\Planeación\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -34,8 +29,9 @@
     <definedName name="Complej.">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -45,7 +41,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +94,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="170">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -541,9 +537,6 @@
     <t>Jose Francisco Llamas Diaz</t>
   </si>
   <si>
-    <t>Cerrado</t>
-  </si>
-  <si>
     <t>Semanal</t>
   </si>
   <si>
@@ -556,9 +549,6 @@
     <t>Buscar y ejecutar la solución</t>
   </si>
   <si>
-    <t>Ocurrido</t>
-  </si>
-  <si>
     <t>Falla de descarga de programa ocasionada por una conexión a internet pobre o limitada, efecto alarga la duracion de la asesoria generando retraso</t>
   </si>
   <si>
@@ -586,9 +576,6 @@
     <t>Reportar el servicio fallido y cambiar la conexón de todas las maquinas</t>
   </si>
   <si>
-    <t>Mitigado</t>
-  </si>
-  <si>
     <t>Probabilidad</t>
   </si>
   <si>
@@ -604,9 +591,6 @@
     <t>Enviar mensajes solicitando  al cliente la respuesta</t>
   </si>
   <si>
-    <t>Abierto</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -680,16 +664,19 @@
   </si>
   <si>
     <t>evolucion-digital@hotmail.com</t>
+  </si>
+  <si>
+    <t>vencido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1279,7 +1266,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,9 +1473,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1636,11 +1620,39 @@
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
     <cellStyle name="Texto explicativo" xfId="3" builtinId="53" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2074,7 +2086,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2109,7 +2121,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2286,21 +2298,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMH9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="20" style="1"/>
     <col min="2" max="2" width="8.85546875" style="1"/>
@@ -2327,14 +2339,14 @@
     <col min="1023" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+    <row r="1" spans="1:3" ht="45.6" customHeight="1">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+    </row>
+    <row r="2" spans="1:3" ht="26.1" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2343,66 +2355,66 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="144" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="144"/>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="143" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="143"/>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="145"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="C4" s="144"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" customHeight="1">
+      <c r="A5" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="145"/>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="144"/>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="144" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="144"/>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="143"/>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="145"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="144"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="146" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="146"/>
+      <c r="B9" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2421,14 +2433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="1"/>
     <col min="2" max="2" width="57.42578125" style="1"/>
@@ -2449,7 +2461,7 @@
     <col min="1024" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023" ht="12.75">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -3474,11 +3486,11 @@
       <c r="AMH1"/>
       <c r="AMI1"/>
     </row>
-    <row r="2" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+    <row r="2" spans="1:1023" ht="21.75" customHeight="1">
+      <c r="A2" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="147"/>
+      <c r="B2" s="146"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -4501,7 +4513,7 @@
       <c r="AMH2"/>
       <c r="AMI2"/>
     </row>
-    <row r="3" spans="1:1023" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1023" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4510,7 +4522,7 @@
         <v xml:space="preserve"> P1446 - RNCFAC, Juan Carlos Sanchez_AG</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1023" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4521,47 +4533,47 @@
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+    <row r="5" spans="1:1023" ht="19.5" customHeight="1">
+      <c r="A5" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="147"/>
+      <c r="B5" s="146"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:1023" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="145" t="s">
+    <row r="6" spans="1:1023" ht="42.75" customHeight="1">
+      <c r="A6" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="145"/>
+      <c r="B6" s="144"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147" t="s">
+    <row r="7" spans="1:1023" ht="21.75" customHeight="1">
+      <c r="A7" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="147"/>
+      <c r="B7" s="146"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:1023" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145" t="s">
+    <row r="8" spans="1:1023" ht="146.25" customHeight="1">
+      <c r="A8" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="145"/>
+      <c r="B8" s="144"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147" t="s">
+    <row r="9" spans="1:1023" ht="19.5" customHeight="1">
+      <c r="A9" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="147"/>
+      <c r="B9" s="146"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:1023" ht="42.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1023" ht="42.6" customHeight="1" outlineLevel="1">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -4571,7 +4583,7 @@
       <c r="C10"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:1023" ht="29.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1023" ht="29.1" customHeight="1" outlineLevel="1">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -4581,7 +4593,7 @@
       <c r="C11"/>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:1023" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1023" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -4589,21 +4601,21 @@
       <c r="C12"/>
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1023">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:1023" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147" t="s">
+    <row r="14" spans="1:1023" ht="20.25" customHeight="1">
+      <c r="A14" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-    </row>
-    <row r="15" spans="1:1023" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+    </row>
+    <row r="15" spans="1:1023" ht="27" customHeight="1" outlineLevel="1">
       <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:1023" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1023" outlineLevel="1">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>42390</v>
       </c>
     </row>
-    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" outlineLevel="1">
       <c r="A17" s="13" t="s">
         <v>29</v>
       </c>
@@ -4645,7 +4657,7 @@
         <v>42402</v>
       </c>
     </row>
-    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" outlineLevel="1">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
@@ -4659,88 +4671,83 @@
         <v>42398</v>
       </c>
     </row>
-    <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" outlineLevel="1">
       <c r="A19" s="13"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" outlineLevel="1">
       <c r="A20" s="13"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" outlineLevel="1">
       <c r="A21" s="13"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="15"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147" t="s">
+    <row r="23" spans="1:4" ht="15.6" customHeight="1">
+      <c r="A23" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="147"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="59.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="59.65" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="147" t="s">
+    <row r="25" spans="1:4" ht="15.6" customHeight="1">
+      <c r="A25" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="147"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="151" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="151"/>
+    <row r="26" spans="1:4" ht="53.65" customHeight="1">
+      <c r="A26" s="150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="150"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A27" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="147"/>
-    </row>
-    <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="149"/>
-    </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="147" t="s">
+      <c r="B27" s="146"/>
+    </row>
+    <row r="28" spans="1:4" ht="53.25" customHeight="1">
+      <c r="A28" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="148"/>
+    </row>
+    <row r="29" spans="1:4" ht="21" customHeight="1">
+      <c r="A29" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="147"/>
-    </row>
-    <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150" t="s">
+      <c r="B29" s="146"/>
+    </row>
+    <row r="30" spans="1:4" ht="45.75" customHeight="1">
+      <c r="A30" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="150"/>
+      <c r="B30" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4750,6 +4757,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4760,14 +4772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="42" style="18"/>
     <col min="2" max="2" width="31.140625" style="18"/>
@@ -4777,7 +4789,7 @@
     <col min="6" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="19"/>
       <c r="B1" s="19" t="s">
         <v>38</v>
@@ -4786,7 +4798,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -4795,7 +4807,7 @@
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="23" t="s">
         <v>40</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="38.25">
       <c r="A4" s="25" t="s">
         <v>45</v>
       </c>
@@ -4829,41 +4841,41 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="25">
         <v>3353054111</v>
       </c>
-      <c r="D5" s="142" t="s">
-        <v>159</v>
+      <c r="D5" s="141" t="s">
+        <v>155</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="143" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="143" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="C6" s="142" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="142" t="s">
+        <v>163</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="38.25">
       <c r="A7" s="25" t="s">
         <v>53</v>
       </c>
@@ -4880,7 +4892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="25" t="s">
         <v>57</v>
       </c>
@@ -4897,7 +4909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
         <v>62</v>
       </c>
@@ -4914,75 +4926,75 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.75">
       <c r="A12" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="25.5">
       <c r="A13" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="143">
+        <v>167</v>
+      </c>
+      <c r="C13" s="142">
         <v>4474784939</v>
       </c>
-      <c r="D13" s="143" t="s">
-        <v>172</v>
+      <c r="D13" s="142" t="s">
+        <v>168</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="34" t="s">
         <v>67</v>
       </c>
@@ -4991,11 +5003,11 @@
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="35"/>
       <c r="B23" s="36" t="s">
         <v>68</v>
@@ -5019,14 +5031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
     <col min="2" max="2" width="51.140625"/>
@@ -5036,7 +5048,7 @@
     <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="37" t="s">
         <v>69</v>
       </c>
@@ -5053,77 +5065,77 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="40"/>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -5141,7 +5153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMI11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -5149,7 +5161,7 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="43"/>
     <col min="2" max="2" width="19.5703125" style="43"/>
@@ -5201,7 +5213,7 @@
     <col min="1024" max="1025" width="19.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -6226,14 +6238,14 @@
       <c r="AMH1"/>
       <c r="AMI1"/>
     </row>
-    <row r="2" spans="1:1023" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="152" t="s">
+    <row r="2" spans="1:1023" ht="28.5" customHeight="1">
+      <c r="A2" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -7253,7 +7265,7 @@
       <c r="AMH2"/>
       <c r="AMI2"/>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1023">
       <c r="A3" s="44" t="s">
         <v>75</v>
       </c>
@@ -8288,7 +8300,7 @@
       <c r="AMH3"/>
       <c r="AMI3"/>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1023">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
@@ -9313,15 +9325,15 @@
       <c r="AMH4"/>
       <c r="AMI4"/>
     </row>
-    <row r="5" spans="1:1023" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1023" s="50" customFormat="1" ht="25.5">
       <c r="A5" s="48" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>80</v>
@@ -9330,15 +9342,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:1023" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1023" s="50" customFormat="1" ht="25.5">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>83</v>
@@ -9347,7 +9359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:1023" s="50" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1023" s="50" customFormat="1" ht="51">
       <c r="A7" s="48" t="s">
         <v>84</v>
       </c>
@@ -9355,7 +9367,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>85</v>
@@ -9364,7 +9376,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:1023" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1023" s="50" customFormat="1" ht="25.5">
       <c r="A8" s="48" t="s">
         <v>87</v>
       </c>
@@ -9381,21 +9393,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:1023" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1023" s="50" customFormat="1">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1023">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="46"/>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1023">
       <c r="A11" s="48"/>
       <c r="B11" s="49"/>
       <c r="C11" s="46"/>
@@ -9420,14 +9432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="32.42578125" style="51"/>
     <col min="2" max="2" width="12.7109375" style="51"/>
@@ -9442,7 +9454,7 @@
     <col min="1024" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -9452,19 +9464,19 @@
       <c r="G1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A2" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="12" t="s">
         <v>92</v>
       </c>
@@ -9488,7 +9500,7 @@
       </c>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="52" t="s">
         <v>99</v>
       </c>
@@ -9512,7 +9524,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="52" t="s">
         <v>103</v>
       </c>
@@ -9536,7 +9548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="51">
       <c r="A6" s="52" t="s">
         <v>104</v>
       </c>
@@ -9562,7 +9574,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="52"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -9572,7 +9584,7 @@
       <c r="G7" s="31"/>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="52"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -9581,7 +9593,7 @@
       <c r="F8" s="53"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="55"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -9590,7 +9602,7 @@
       <c r="F9" s="53"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="52"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -9599,7 +9611,7 @@
       <c r="F10" s="53"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="52"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -9608,7 +9620,7 @@
       <c r="F11" s="53"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="52"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -9617,7 +9629,7 @@
       <c r="F12" s="53"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -9626,7 +9638,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -9635,7 +9647,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -9662,14 +9674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.7109375"/>
     <col min="2" max="2" width="25.42578125"/>
@@ -9685,12 +9697,12 @@
     <col min="12" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:261" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:261">
       <c r="A1" s="57"/>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
     </row>
-    <row r="2" spans="1:261" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:261" ht="23.25">
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -9717,7 +9729,7 @@
       <c r="IZ2" s="62"/>
       <c r="JA2" s="62"/>
     </row>
-    <row r="3" spans="1:261" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:261">
       <c r="A3" s="63"/>
       <c r="B3" s="64"/>
       <c r="C3" s="65"/>
@@ -9736,7 +9748,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:261" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:261" ht="30">
       <c r="A4" s="69" t="s">
         <v>111</v>
       </c>
@@ -9777,7 +9789,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:261" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:261" ht="89.25">
       <c r="A5" s="74">
         <v>1</v>
       </c>
@@ -9806,19 +9818,19 @@
       <c r="I5" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:261" ht="76.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:261" ht="76.5">
       <c r="A6" s="74">
         <v>2</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="74">
         <v>4</v>
@@ -9834,27 +9846,27 @@
         <v>3</v>
       </c>
       <c r="G6" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="78" t="s">
         <v>129</v>
-      </c>
-      <c r="H6" s="79" t="s">
-        <v>130</v>
       </c>
       <c r="I6" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" s="79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:261" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="J6" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:261" ht="76.5">
       <c r="A7" s="74">
         <v>3</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="74">
         <v>4</v>
@@ -9870,27 +9882,27 @@
         <v>3</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I7" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:261" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:261" ht="51">
       <c r="A8" s="74">
         <v>4</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" s="74">
         <v>5</v>
@@ -9906,35 +9918,35 @@
         <v>4</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="79" t="s">
+      <c r="J8" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="IS8" s="80"/>
-      <c r="IT8" s="81"/>
-      <c r="IU8" s="81"/>
-      <c r="IV8" s="82"/>
-      <c r="IW8" s="83"/>
-      <c r="IX8" s="83"/>
-      <c r="IY8" s="83"/>
-      <c r="IZ8" s="84"/>
-    </row>
-    <row r="9" spans="1:261" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="IS8" s="79"/>
+      <c r="IT8" s="80"/>
+      <c r="IU8" s="80"/>
+      <c r="IV8" s="81"/>
+      <c r="IW8" s="82"/>
+      <c r="IX8" s="82"/>
+      <c r="IY8" s="82"/>
+      <c r="IZ8" s="83"/>
+    </row>
+    <row r="9" spans="1:261" ht="58.5">
       <c r="A9" s="74">
         <v>5</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="74">
         <v>5</v>
@@ -9950,56 +9962,56 @@
         <v>4</v>
       </c>
       <c r="G9" s="75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="79" t="s">
+      <c r="J9" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="IS9" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="IT9" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="IU9" s="87">
+      <c r="IS9" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="IT9" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="IU9" s="86">
         <v>0.9</v>
       </c>
-      <c r="IV9" s="88">
+      <c r="IV9" s="87">
         <f>(IV14*IU9)</f>
         <v>0.9</v>
       </c>
-      <c r="IW9" s="89">
+      <c r="IW9" s="88">
         <f>(IW14*IU9)</f>
         <v>1.8</v>
       </c>
-      <c r="IX9" s="90">
+      <c r="IX9" s="89">
         <f>(IX14*IU9)</f>
         <v>2.7</v>
       </c>
-      <c r="IY9" s="91">
+      <c r="IY9" s="90">
         <f>(IY14*IU9)</f>
         <v>3.6</v>
       </c>
-      <c r="IZ9" s="92">
+      <c r="IZ9" s="91">
         <f>(IZ14*IU9)</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:261" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="93">
+    <row r="10" spans="1:261" ht="76.5">
+      <c r="A10" s="92">
         <v>6</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="74">
         <v>1</v>
@@ -10015,548 +10027,548 @@
         <v>3</v>
       </c>
       <c r="G10" s="75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I10" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="IS10" s="85"/>
-      <c r="IT10" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="IU10" s="87">
+      <c r="J10" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="IS10" s="84"/>
+      <c r="IT10" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="IU10" s="86">
         <v>0.7</v>
       </c>
-      <c r="IV10" s="94">
+      <c r="IV10" s="93">
         <f>(IV14*IU10)</f>
         <v>0.7</v>
       </c>
-      <c r="IW10" s="95">
+      <c r="IW10" s="94">
         <f>(IW14*IU10)</f>
         <v>1.4</v>
       </c>
-      <c r="IX10" s="96">
+      <c r="IX10" s="95">
         <f>(IX14*IU10)</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="IY10" s="97">
+      <c r="IY10" s="96">
         <f>(IY14*IU10)</f>
         <v>2.8</v>
       </c>
-      <c r="IZ10" s="98">
+      <c r="IZ10" s="97">
         <f>(IZ14*IU10)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:261" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="93">
+    <row r="11" spans="1:261" ht="15">
+      <c r="A11" s="92">
         <v>7</v>
       </c>
       <c r="B11" s="75"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="93">
+      <c r="C11" s="92"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="93"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="75"/>
       <c r="H11" s="75"/>
       <c r="I11" s="74"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
-      <c r="IS11" s="85"/>
-      <c r="IT11" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="IU11" s="87">
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="IS11" s="84"/>
+      <c r="IT11" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="IU11" s="86">
         <v>0.5</v>
       </c>
-      <c r="IV11" s="94">
+      <c r="IV11" s="93">
         <f>(IV14*IU11)</f>
         <v>0.5</v>
       </c>
-      <c r="IW11" s="102">
+      <c r="IW11" s="101">
         <f>(IW14*IU11)</f>
         <v>1</v>
       </c>
-      <c r="IX11" s="95">
+      <c r="IX11" s="94">
         <f>(IX14*IU11)</f>
         <v>1.5</v>
       </c>
-      <c r="IY11" s="95">
+      <c r="IY11" s="94">
         <f>(IY14*IU11)</f>
         <v>2</v>
       </c>
-      <c r="IZ11" s="103">
+      <c r="IZ11" s="102">
         <f>(IZ14*IU11)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:261" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="93">
+    <row r="12" spans="1:261" ht="15">
+      <c r="A12" s="92">
         <v>8</v>
       </c>
       <c r="B12" s="75"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="93">
+      <c r="C12" s="92"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="93"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="75"/>
       <c r="H12" s="75"/>
       <c r="I12" s="74"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="IS12" s="85"/>
-      <c r="IT12" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="IU12" s="87">
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="IS12" s="84"/>
+      <c r="IT12" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="IU12" s="86">
         <v>0.3</v>
       </c>
-      <c r="IV12" s="104">
+      <c r="IV12" s="103">
         <f>(IV14*IU12)</f>
         <v>0.3</v>
       </c>
-      <c r="IW12" s="105">
+      <c r="IW12" s="104">
         <f>(IW14*IU12)</f>
         <v>0.6</v>
       </c>
-      <c r="IX12" s="95">
+      <c r="IX12" s="94">
         <f>(IX14*IU12)</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="IY12" s="95">
+      <c r="IY12" s="94">
         <f>(IY14*IU12)</f>
         <v>1.2</v>
       </c>
-      <c r="IZ12" s="106">
+      <c r="IZ12" s="105">
         <f>(IZ14*IU12)</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:261" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="93">
+    <row r="13" spans="1:261" ht="15">
+      <c r="A13" s="92">
         <v>9</v>
       </c>
       <c r="B13" s="75"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="93">
+      <c r="C13" s="92"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="107"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="75"/>
       <c r="I13" s="74"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="IS13" s="85"/>
-      <c r="IT13" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="IU13" s="108">
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="IS13" s="84"/>
+      <c r="IT13" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="IU13" s="107">
         <v>0.1</v>
       </c>
-      <c r="IV13" s="109">
+      <c r="IV13" s="108">
         <f>(IV14*IU13)</f>
         <v>0.1</v>
       </c>
-      <c r="IW13" s="110">
+      <c r="IW13" s="109">
         <f>(IW14*IU13)</f>
         <v>0.2</v>
       </c>
-      <c r="IX13" s="111">
+      <c r="IX13" s="110">
         <f>(IX14*IV13)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="IY13" s="111">
+      <c r="IY13" s="110">
         <f>(IY14*IU13)</f>
         <v>0.4</v>
       </c>
-      <c r="IZ13" s="112">
+      <c r="IZ13" s="111">
         <f>(IZ14*IU13)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:261" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="113">
+    <row r="14" spans="1:261" ht="15">
+      <c r="A14" s="112">
         <v>10</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="113">
+      <c r="B14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="113"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="119"/>
-      <c r="IS14" s="120"/>
-      <c r="IT14" s="121"/>
-      <c r="IU14" s="86"/>
-      <c r="IV14" s="87">
+      <c r="F14" s="112"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
+      <c r="IS14" s="119"/>
+      <c r="IT14" s="120"/>
+      <c r="IU14" s="85"/>
+      <c r="IV14" s="86">
         <v>1</v>
       </c>
-      <c r="IW14" s="87">
+      <c r="IW14" s="86">
         <v>2</v>
       </c>
-      <c r="IX14" s="87">
+      <c r="IX14" s="86">
         <v>3</v>
       </c>
-      <c r="IY14" s="87">
+      <c r="IY14" s="86">
         <v>4</v>
       </c>
-      <c r="IZ14" s="122">
+      <c r="IZ14" s="121">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:261" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="113">
+    <row r="15" spans="1:261" ht="15">
+      <c r="A15" s="112">
         <v>11</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113">
+      <c r="B15" s="113"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="113"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="119"/>
-      <c r="IS15" s="120"/>
-      <c r="IT15" s="121"/>
-      <c r="IU15" s="121"/>
-      <c r="IV15" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="IW15" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="IX15" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="IY15" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="IZ15" s="123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:261" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="113">
+      <c r="F15" s="112"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="118"/>
+      <c r="IS15" s="119"/>
+      <c r="IT15" s="120"/>
+      <c r="IU15" s="120"/>
+      <c r="IV15" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="IW15" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="IX15" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="IY15" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="IZ15" s="122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:261" ht="15">
+      <c r="A16" s="112">
         <v>12</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="113">
+      <c r="B16" s="113"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="113"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="119"/>
-      <c r="IS16" s="120"/>
-      <c r="IT16" s="121"/>
-      <c r="IU16" s="87"/>
-      <c r="IV16" s="124" t="s">
-        <v>152</v>
-      </c>
-      <c r="IW16" s="124"/>
-      <c r="IX16" s="124"/>
-      <c r="IY16" s="124"/>
-      <c r="IZ16" s="124"/>
-    </row>
-    <row r="17" spans="1:260" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="113">
+      <c r="F16" s="112"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="118"/>
+      <c r="IS16" s="119"/>
+      <c r="IT16" s="120"/>
+      <c r="IU16" s="86"/>
+      <c r="IV16" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="IW16" s="123"/>
+      <c r="IX16" s="123"/>
+      <c r="IY16" s="123"/>
+      <c r="IZ16" s="123"/>
+    </row>
+    <row r="17" spans="1:260" ht="15">
+      <c r="A17" s="112">
         <v>13</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="113">
+      <c r="B17" s="113"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="113"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="119"/>
-      <c r="IS17" s="120"/>
-      <c r="IT17" s="121"/>
-      <c r="IU17" s="121"/>
-      <c r="IV17" s="121"/>
-      <c r="IW17" s="121"/>
-      <c r="IX17" s="121"/>
-      <c r="IY17" s="121"/>
-      <c r="IZ17" s="125"/>
-    </row>
-    <row r="18" spans="1:260" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="113">
+      <c r="F17" s="112"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="118"/>
+      <c r="IS17" s="119"/>
+      <c r="IT17" s="120"/>
+      <c r="IU17" s="120"/>
+      <c r="IV17" s="120"/>
+      <c r="IW17" s="120"/>
+      <c r="IX17" s="120"/>
+      <c r="IY17" s="120"/>
+      <c r="IZ17" s="124"/>
+    </row>
+    <row r="18" spans="1:260" ht="15">
+      <c r="A18" s="112">
         <v>14</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="113">
+      <c r="B18" s="113"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="113"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="119"/>
-      <c r="IS18" s="120"/>
-      <c r="IT18" s="121"/>
-      <c r="IU18" s="126"/>
-      <c r="IV18" s="126"/>
-      <c r="IW18" s="126"/>
-      <c r="IX18" s="126"/>
-      <c r="IY18" s="126"/>
-      <c r="IZ18" s="127"/>
-    </row>
-    <row r="19" spans="1:260" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="113">
+      <c r="F18" s="112"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="118"/>
+      <c r="IS18" s="119"/>
+      <c r="IT18" s="120"/>
+      <c r="IU18" s="125"/>
+      <c r="IV18" s="125"/>
+      <c r="IW18" s="125"/>
+      <c r="IX18" s="125"/>
+      <c r="IY18" s="125"/>
+      <c r="IZ18" s="126"/>
+    </row>
+    <row r="19" spans="1:260" ht="15">
+      <c r="A19" s="112">
         <v>15</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="113">
+      <c r="B19" s="113"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="113"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="119"/>
-      <c r="IS19" s="128" t="s">
+      <c r="F19" s="112"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="118"/>
+      <c r="IS19" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="IT19" s="128"/>
-      <c r="IU19" s="126"/>
-      <c r="IV19" s="126"/>
-      <c r="IW19" s="126"/>
-      <c r="IX19" s="126"/>
-      <c r="IY19" s="126"/>
-      <c r="IZ19" s="127"/>
-    </row>
-    <row r="20" spans="1:260" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="113">
+      <c r="IT19" s="127"/>
+      <c r="IU19" s="125"/>
+      <c r="IV19" s="125"/>
+      <c r="IW19" s="125"/>
+      <c r="IX19" s="125"/>
+      <c r="IY19" s="125"/>
+      <c r="IZ19" s="126"/>
+    </row>
+    <row r="20" spans="1:260" ht="15">
+      <c r="A20" s="112">
         <v>16</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="113">
+      <c r="B20" s="113"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="119"/>
-      <c r="IS20" s="129" t="s">
-        <v>153</v>
-      </c>
-      <c r="IT20" s="130"/>
-      <c r="IU20" s="126"/>
-      <c r="IV20" s="131" t="s">
-        <v>154</v>
-      </c>
-      <c r="IW20" s="131"/>
-      <c r="IX20" s="131"/>
-      <c r="IY20" s="131"/>
-      <c r="IZ20" s="131"/>
-    </row>
-    <row r="21" spans="1:260" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="113">
+      <c r="F20" s="112"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="118"/>
+      <c r="IS20" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="IT20" s="129"/>
+      <c r="IU20" s="125"/>
+      <c r="IV20" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="IW20" s="130"/>
+      <c r="IX20" s="130"/>
+      <c r="IY20" s="130"/>
+      <c r="IZ20" s="130"/>
+    </row>
+    <row r="21" spans="1:260" ht="51">
+      <c r="A21" s="112">
         <v>17</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="113">
+      <c r="B21" s="113"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="113"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="119"/>
-      <c r="IS21" s="129" t="s">
-        <v>155</v>
-      </c>
-      <c r="IT21" s="132"/>
-      <c r="IU21" s="126"/>
-      <c r="IV21" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="IW21" s="131"/>
-      <c r="IX21" s="131"/>
-      <c r="IY21" s="131"/>
-      <c r="IZ21" s="131"/>
-    </row>
-    <row r="22" spans="1:260" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="113">
+      <c r="F21" s="112"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118"/>
+      <c r="IS21" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="IT21" s="131"/>
+      <c r="IU21" s="125"/>
+      <c r="IV21" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="IW21" s="130"/>
+      <c r="IX21" s="130"/>
+      <c r="IY21" s="130"/>
+      <c r="IZ21" s="130"/>
+    </row>
+    <row r="22" spans="1:260" ht="51">
+      <c r="A22" s="112">
         <v>18</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="113">
+      <c r="B22" s="113"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="113"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="119"/>
-      <c r="IS22" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="IT22" s="133"/>
-      <c r="IU22" s="126"/>
-      <c r="IV22" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="IW22" s="131"/>
-      <c r="IX22" s="131"/>
-      <c r="IY22" s="131"/>
-      <c r="IZ22" s="131"/>
-    </row>
-    <row r="23" spans="1:260" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="113">
+      <c r="F22" s="112"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
+      <c r="IS22" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="IT22" s="132"/>
+      <c r="IU22" s="125"/>
+      <c r="IV22" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="IW22" s="130"/>
+      <c r="IX22" s="130"/>
+      <c r="IY22" s="130"/>
+      <c r="IZ22" s="130"/>
+    </row>
+    <row r="23" spans="1:260" ht="15">
+      <c r="A23" s="112">
         <v>19</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="113">
+      <c r="B23" s="113"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="113"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119"/>
-      <c r="IS23" s="134"/>
-      <c r="IT23" s="135"/>
-      <c r="IU23" s="136"/>
-      <c r="IV23" s="136"/>
-      <c r="IW23" s="136"/>
-      <c r="IX23" s="136"/>
-      <c r="IY23" s="136"/>
-      <c r="IZ23" s="137"/>
-    </row>
-    <row r="24" spans="1:260" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="113">
+      <c r="F23" s="112"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
+      <c r="IS23" s="133"/>
+      <c r="IT23" s="134"/>
+      <c r="IU23" s="135"/>
+      <c r="IV23" s="135"/>
+      <c r="IW23" s="135"/>
+      <c r="IX23" s="135"/>
+      <c r="IY23" s="135"/>
+      <c r="IZ23" s="136"/>
+    </row>
+    <row r="24" spans="1:260" ht="15">
+      <c r="A24" s="112">
         <v>20</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="113">
+      <c r="B24" s="113"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="113"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="119"/>
-    </row>
-    <row r="25" spans="1:260" x14ac:dyDescent="0.2">
-      <c r="A25" s="138"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-    </row>
-    <row r="26" spans="1:260" x14ac:dyDescent="0.2">
-      <c r="A26" s="138"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-    </row>
-    <row r="27" spans="1:260" x14ac:dyDescent="0.2">
-      <c r="A27" s="138"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-    </row>
-    <row r="28" spans="1:260" x14ac:dyDescent="0.2">
-      <c r="A28" s="138"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-    </row>
-    <row r="29" spans="1:260" x14ac:dyDescent="0.2">
-      <c r="A29" s="138"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-    </row>
-    <row r="30" spans="1:260" x14ac:dyDescent="0.2">
-      <c r="A30" s="138"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="138"/>
-    </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="118"/>
+    </row>
+    <row r="25" spans="1:260">
+      <c r="A25" s="137"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+    </row>
+    <row r="26" spans="1:260">
+      <c r="A26" s="137"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+    </row>
+    <row r="27" spans="1:260">
+      <c r="A27" s="137"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+    </row>
+    <row r="28" spans="1:260">
+      <c r="A28" s="137"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+    </row>
+    <row r="29" spans="1:260">
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+    </row>
+    <row r="30" spans="1:260">
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="137"/>
+    </row>
+    <row r="38" spans="3:32">
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
       <c r="I38" s="57"/>
@@ -10584,9 +10596,9 @@
       <c r="AE38" s="57"/>
       <c r="AF38" s="57"/>
     </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
+    <row r="39" spans="3:32">
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
       <c r="I39" s="57"/>
@@ -10614,9 +10626,9 @@
       <c r="AE39" s="57"/>
       <c r="AF39" s="57"/>
     </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
+    <row r="40" spans="3:32">
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
       <c r="I40" s="57"/>
@@ -10644,9 +10656,9 @@
       <c r="AE40" s="57"/>
       <c r="AF40" s="57"/>
     </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
+    <row r="41" spans="3:32">
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
       <c r="G41" s="57"/>
       <c r="H41" s="57"/>
       <c r="I41" s="57"/>
@@ -10674,9 +10686,9 @@
       <c r="AE41" s="57"/>
       <c r="AF41" s="57"/>
     </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
+    <row r="42" spans="3:32">
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
@@ -10704,9 +10716,9 @@
       <c r="AE42" s="57"/>
       <c r="AF42" s="57"/>
     </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
+    <row r="43" spans="3:32">
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
       <c r="G43" s="57"/>
       <c r="H43" s="57"/>
       <c r="I43" s="57"/>
@@ -10735,11 +10747,7 @@
       <c r="AF43" s="57"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J9">
-      <formula1>"Abierto,Mitigado,Ocurrido,Cerrado"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9">
       <formula1>"1,2,3,4"</formula1>
       <formula2>0</formula2>
